--- a/Sample Sheet.xlsx
+++ b/Sample Sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rehan\University\Semester 07\Final Year Project\Tortoise GIT\Local Repository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PUCIT Record\7th semester\FinalYearProject\Tortoise GIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Column 1</t>
   </si>
@@ -86,12 +86,6 @@
     <t>R</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -126,6 +120,15 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>mbbs</t>
+  </si>
+  <si>
+    <t>bse</t>
+  </si>
+  <si>
+    <t>mba</t>
   </si>
 </sst>
 </file>
@@ -502,6 +505,9 @@
       <c r="G2" t="s">
         <v>15</v>
       </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -526,7 +532,7 @@
         <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -534,25 +540,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>26</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>30</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>32</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -560,22 +566,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>29</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>31</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
